--- a/spec/tests/cahier de test by matt.xlsx
+++ b/spec/tests/cahier de test by matt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>numéro</t>
   </si>
@@ -341,6 +341,63 @@
   </si>
   <si>
     <t>testBaseCharFullLifeCours</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>testDimensionsDebut</t>
+  </si>
+  <si>
+    <t>validé si le plateau est bien de la dimension entrée en paramètres au début de la partie</t>
+  </si>
+  <si>
+    <t>testDimensionsCours</t>
+  </si>
+  <si>
+    <t>validé si le plateau fait toujours la même dimension au cours de cette même partie</t>
+  </si>
+  <si>
+    <t>testObstacles</t>
+  </si>
+  <si>
+    <t>validé si le plateau contient bien le bon pourcentage d'obstacles entré en paramètre au début de la partie</t>
+  </si>
+  <si>
+    <t>testBasesDebut</t>
+  </si>
+  <si>
+    <t>testBasesCours</t>
+  </si>
+  <si>
+    <t>validé si les bases sont situées aux extrémités d'une diagonale au début de la partie</t>
+  </si>
+  <si>
+    <t>validé si les bases sont situées sur les même cases qu'au début de cette même partie</t>
+  </si>
+  <si>
+    <t>testSortieImpossibleDebut</t>
+  </si>
+  <si>
+    <t>validé si la sortie de plateau par chaque côté est impossible au début de la partie</t>
+  </si>
+  <si>
+    <t>testSortieImpossibleTireur</t>
+  </si>
+  <si>
+    <t>validé si un tireur ne peut pas sortir du plateau en cours de partie</t>
+  </si>
+  <si>
+    <t>testSortieImpossiblePiegeur</t>
+  </si>
+  <si>
+    <t>validé si un piégeur ne peut pas sortir du plateau en cours de partie</t>
+  </si>
+  <si>
+    <t>testSortieImpossibleChar</t>
+  </si>
+  <si>
+    <t>validé si un char ne peut pas sortir du plateau en cours de partie</t>
   </si>
 </sst>
 </file>
@@ -705,10 +762,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,6 +1262,83 @@
         <v>95</v>
       </c>
     </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/spec/tests/cahier de test by matt.xlsx
+++ b/spec/tests/cahier de test by matt.xlsx
@@ -764,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spec/tests/cahier de test by matt.xlsx
+++ b/spec/tests/cahier de test by matt.xlsx
@@ -764,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spec/tests/cahier de test by matt.xlsx
+++ b/spec/tests/cahier de test by matt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>numéro</t>
   </si>
@@ -398,6 +398,162 @@
   </si>
   <si>
     <t>validé si un char ne peut pas sortir du plateau en cours de partie</t>
+  </si>
+  <si>
+    <t>testToucherBaseTireurDebut</t>
+  </si>
+  <si>
+    <t>testToucherBasePiegeurDebut</t>
+  </si>
+  <si>
+    <t>testToucherBaseCharDebut</t>
+  </si>
+  <si>
+    <t>validé si le tireur ne peut se faire toucher dans sa base en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le piegeur ne peut se faire toucher dans sa base en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le char ne peut se faire toucher dans sa base en début de partie</t>
+  </si>
+  <si>
+    <t>testToucherBaseTireurCours</t>
+  </si>
+  <si>
+    <t>validé si le Tireur réfuigé dans sa base ne peut pas se faire toucher en cours de partie</t>
+  </si>
+  <si>
+    <t>testToucherBasePiegeurCours</t>
+  </si>
+  <si>
+    <t>validé si le piegeur réfuigé dans sa base ne peut pas se faire toucher en cours de partie</t>
+  </si>
+  <si>
+    <t>testToucherBaseCharCours</t>
+  </si>
+  <si>
+    <t>validé si le char réfugié dans sa base ne peut pas se faire toucher en cours de partie</t>
+  </si>
+  <si>
+    <t>testVisibiliteBaseTireurDebut</t>
+  </si>
+  <si>
+    <t>testVisibiliteBasePiegeurDebut</t>
+  </si>
+  <si>
+    <t>validé si le piegeur n'est pas visible dans sa base en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le char n'est pas visible dans sa base en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le tireur réfugié dans sa base n'est pas visible en cours de partie</t>
+  </si>
+  <si>
+    <t>validé si le piegeur réfugié dans sa base n'est pas visible en cours de partie</t>
+  </si>
+  <si>
+    <t>validé si le char réfugié dans sa base n'est pas visible en cours de partie</t>
+  </si>
+  <si>
+    <t>validé si le tireur n'est pas visible dans sa base en début de partie</t>
+  </si>
+  <si>
+    <t>testVisibiliteBaseCharDebut</t>
+  </si>
+  <si>
+    <t>testVisibiliteBaseTireurCours</t>
+  </si>
+  <si>
+    <t>testVisibiliteBasePiegeurCours</t>
+  </si>
+  <si>
+    <t>testVisibiliteBaseCharCours</t>
+  </si>
+  <si>
+    <t>testAccessDeniedTireurDebut</t>
+  </si>
+  <si>
+    <t>validé si le tireur n'as pas possibilité d'accéder à la base ennemie en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le piegeur n'as pas possibilité d'accéder à la base ennemie en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le char n'as pas possibilité d'accéder à la base ennemie en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le tireur n'as toujours pas possibilité d'accéder à la base ennemie en cours de partie</t>
+  </si>
+  <si>
+    <t>validé si le piegeur n'as toujours pas possibilité d'accéder à la base ennemie en cours de partie</t>
+  </si>
+  <si>
+    <t>validé si le char n'as toujours pas possibilité d'accéder à la base ennemie en cours de partie</t>
+  </si>
+  <si>
+    <t>testAccessDeniedPiegeurDebut</t>
+  </si>
+  <si>
+    <t>testAccessDeniedCharDebut</t>
+  </si>
+  <si>
+    <t>testAccessDeniedTireurCours</t>
+  </si>
+  <si>
+    <t>testAccessDeniedPiegeurCours</t>
+  </si>
+  <si>
+    <t>testAccessDeniedCharCours</t>
+  </si>
+  <si>
+    <t>testCharPasseSurMineDebut</t>
+  </si>
+  <si>
+    <t>testCharPasseSurMineCours</t>
+  </si>
+  <si>
+    <t>validé si le char qui passe sur une mine dans son déplacement prend des dégats en début de partie</t>
+  </si>
+  <si>
+    <t>validé si le char qui passe sur une mine dans son déplacement prend des dégats en cours de partie</t>
+  </si>
+  <si>
+    <t>testVisibiliteMinesDebut</t>
+  </si>
+  <si>
+    <t>testVisibiliteMinesCours</t>
+  </si>
+  <si>
+    <t>testNonVisibiliteMinesDebut</t>
+  </si>
+  <si>
+    <t>validé si on voit les mines de son equipe en début de partie</t>
+  </si>
+  <si>
+    <t>validé si on voit toujours les mines de son équipe en cours de partie</t>
+  </si>
+  <si>
+    <t>validé si on ne voit pas les mines de l'équipe adverse en début de partie</t>
+  </si>
+  <si>
+    <t>validé si on ne voit toujours pas les mines de l'équipe adverse en cours de partie</t>
+  </si>
+  <si>
+    <t>testNonVisibiliteMinesCours</t>
+  </si>
+  <si>
+    <t>testDispartionMineDebut</t>
+  </si>
+  <si>
+    <t>validé sur une mine disparait bien si on passe dessus en début de partie</t>
+  </si>
+  <si>
+    <t>testDispartionMineCours</t>
+  </si>
+  <si>
+    <t>validé sur une mine disparait bien si on passe dessus en cours de partie</t>
   </si>
 </sst>
 </file>
@@ -762,15 +918,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="136.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -1339,6 +1495,217 @@
         <v>127</v>
       </c>
     </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/spec/tests/cahier de test by matt.xlsx
+++ b/spec/tests/cahier de test by matt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="268">
   <si>
     <t>numéro</t>
   </si>
@@ -554,6 +554,270 @@
   </si>
   <si>
     <t>validé sur une mine disparait bien si on passe dessus en cours de partie</t>
+  </si>
+  <si>
+    <t>#001</t>
+  </si>
+  <si>
+    <t>#002</t>
+  </si>
+  <si>
+    <t>#003</t>
+  </si>
+  <si>
+    <t>#004</t>
+  </si>
+  <si>
+    <t>#005</t>
+  </si>
+  <si>
+    <t>#006</t>
+  </si>
+  <si>
+    <t>#007</t>
+  </si>
+  <si>
+    <t>#008</t>
+  </si>
+  <si>
+    <t>#009</t>
+  </si>
+  <si>
+    <t>#010</t>
+  </si>
+  <si>
+    <t>#011</t>
+  </si>
+  <si>
+    <t>#012</t>
+  </si>
+  <si>
+    <t>#013</t>
+  </si>
+  <si>
+    <t>#014</t>
+  </si>
+  <si>
+    <t>#015</t>
+  </si>
+  <si>
+    <t>#016</t>
+  </si>
+  <si>
+    <t>#017</t>
+  </si>
+  <si>
+    <t>#018</t>
+  </si>
+  <si>
+    <t>#019</t>
+  </si>
+  <si>
+    <t>#020</t>
+  </si>
+  <si>
+    <t>#021</t>
+  </si>
+  <si>
+    <t>#022</t>
+  </si>
+  <si>
+    <t>#023</t>
+  </si>
+  <si>
+    <t>#024</t>
+  </si>
+  <si>
+    <t>#025</t>
+  </si>
+  <si>
+    <t>#026</t>
+  </si>
+  <si>
+    <t>#027</t>
+  </si>
+  <si>
+    <t>#028</t>
+  </si>
+  <si>
+    <t>#029</t>
+  </si>
+  <si>
+    <t>#030</t>
+  </si>
+  <si>
+    <t>#031</t>
+  </si>
+  <si>
+    <t>#032</t>
+  </si>
+  <si>
+    <t>#033</t>
+  </si>
+  <si>
+    <t>#034</t>
+  </si>
+  <si>
+    <t>#035</t>
+  </si>
+  <si>
+    <t>#036</t>
+  </si>
+  <si>
+    <t>#037</t>
+  </si>
+  <si>
+    <t>#038</t>
+  </si>
+  <si>
+    <t>#039</t>
+  </si>
+  <si>
+    <t>#040</t>
+  </si>
+  <si>
+    <t>#041</t>
+  </si>
+  <si>
+    <t>#042</t>
+  </si>
+  <si>
+    <t>#043</t>
+  </si>
+  <si>
+    <t>#044</t>
+  </si>
+  <si>
+    <t>#045</t>
+  </si>
+  <si>
+    <t>#046</t>
+  </si>
+  <si>
+    <t>#047</t>
+  </si>
+  <si>
+    <t>#048</t>
+  </si>
+  <si>
+    <t>#049</t>
+  </si>
+  <si>
+    <t>#050</t>
+  </si>
+  <si>
+    <t>#051</t>
+  </si>
+  <si>
+    <t>#052</t>
+  </si>
+  <si>
+    <t>#053</t>
+  </si>
+  <si>
+    <t>#054</t>
+  </si>
+  <si>
+    <t>#055</t>
+  </si>
+  <si>
+    <t>#056</t>
+  </si>
+  <si>
+    <t>#057</t>
+  </si>
+  <si>
+    <t>#058</t>
+  </si>
+  <si>
+    <t>#059</t>
+  </si>
+  <si>
+    <t>#060</t>
+  </si>
+  <si>
+    <t>#061</t>
+  </si>
+  <si>
+    <t>#062</t>
+  </si>
+  <si>
+    <t>#063</t>
+  </si>
+  <si>
+    <t>#064</t>
+  </si>
+  <si>
+    <t>#065</t>
+  </si>
+  <si>
+    <t>#066</t>
+  </si>
+  <si>
+    <t>#067</t>
+  </si>
+  <si>
+    <t>#068</t>
+  </si>
+  <si>
+    <t>#069</t>
+  </si>
+  <si>
+    <t>#070</t>
+  </si>
+  <si>
+    <t>#071</t>
+  </si>
+  <si>
+    <t>#072</t>
+  </si>
+  <si>
+    <t>#073</t>
+  </si>
+  <si>
+    <t>#074</t>
+  </si>
+  <si>
+    <t>#075</t>
+  </si>
+  <si>
+    <t>#076</t>
+  </si>
+  <si>
+    <t>#077</t>
+  </si>
+  <si>
+    <t>#078</t>
+  </si>
+  <si>
+    <t>#079</t>
+  </si>
+  <si>
+    <t>#080</t>
+  </si>
+  <si>
+    <t>#081</t>
+  </si>
+  <si>
+    <t>#082</t>
+  </si>
+  <si>
+    <t>#083</t>
+  </si>
+  <si>
+    <t>#084</t>
+  </si>
+  <si>
+    <t>#085</t>
+  </si>
+  <si>
+    <t>#086</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -920,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,9 +1234,15 @@
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -982,9 +1252,15 @@
       <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -994,9 +1270,15 @@
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1006,9 +1288,15 @@
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1018,9 +1306,15 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1030,9 +1324,15 @@
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1040,7 +1340,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1050,9 +1350,15 @@
       <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1062,9 +1368,15 @@
       <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1074,9 +1386,15 @@
       <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1085,6 +1403,15 @@
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -1093,6 +1420,15 @@
       <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -1101,609 +1437,1322 @@
       <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>234</v>
+      </c>
+      <c r="E66" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>235</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>237</v>
+      </c>
+      <c r="E69" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" t="s">
+        <v>267</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+      <c r="E78" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>246</v>
+      </c>
+      <c r="E80" t="s">
+        <v>267</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>252</v>
+      </c>
+      <c r="E87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
         <v>159</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F93" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>165</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>259</v>
+      </c>
+      <c r="E95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>260</v>
+      </c>
+      <c r="E97" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>169</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>261</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>170</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>262</v>
+      </c>
+      <c r="E99" t="s">
+        <v>267</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>175</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>263</v>
+      </c>
+      <c r="E100" t="s">
+        <v>267</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
         <v>176</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>264</v>
+      </c>
+      <c r="E102" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>179</v>
+      </c>
+      <c r="D103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E103" t="s">
+        <v>267</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
